--- a/P_QF/MacroAnalysis/Quant_IV.xlsx
+++ b/P_QF/MacroAnalysis/Quant_IV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyu\Documents\GitHub\QF\P_QF\MacroAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406E898-166A-4080-9208-76288BEEA821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0FD47F-D59F-4619-BA0C-3EEF489FFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4823E848-557F-4E7C-A88F-E52386128D54}"/>
   </bookViews>
@@ -17,6 +17,13 @@
     <sheet name="Theory" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">TSLS_IV!$O$3:$O$66</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TSLS_IV!$U$13:$U$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TSLS_IV!$U$36:$U$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TSLS_IV!$O$3:$O$66</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TSLS_IV!$U$13:$U$35</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TSLS_IV!$U$36:$U$76</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">TSLS_IV!$L$3:$L$66</definedName>
     <definedName name="e__IV">TSLS_IV!$O$3:$O$66</definedName>
     <definedName name="Gamma_1">TSLS_IV!$V$13</definedName>
     <definedName name="pi_1">TSLS_IV!$R$13</definedName>
@@ -27,6 +34,8 @@
     <definedName name="x_hat_varibale">TSLS_IV!$J$3:$K$66</definedName>
     <definedName name="x_variable">TSLS_IV!$D$3:$E$66</definedName>
     <definedName name="Y">TSLS_IV!$B$3:$B$66</definedName>
+    <definedName name="Y__IV">TSLS_IV!$N$3:$N$66</definedName>
+    <definedName name="Y__OLS">TSLS_IV!$M$3:$M$66</definedName>
     <definedName name="Z">TSLS_IV!$H$3:$H$66</definedName>
     <definedName name="Z_coefficient">TSLS_IV!$R$13:$S$13</definedName>
     <definedName name="z_variable">TSLS_IV!$G$3:$H$66</definedName>
@@ -84,7 +93,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Protection against expropriation</t>
+          <t>Protection against expropriation征收</t>
         </r>
       </text>
     </comment>
@@ -106,7 +115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Log settler mortality</t>
+          <t>Log settler mortality死亡</t>
         </r>
       </text>
     </comment>
@@ -134,7 +143,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -482,9 +491,6 @@
     <t>z-stat</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ref: https://www.youtube.com/watch?v=rdVB1egQZ8A</t>
   </si>
   <si>
@@ -495,6 +501,9 @@
   </si>
   <si>
     <t>Ref:https://www.youtube.com/watch?v=61I-8tDgwag</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -686,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,6 +821,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2518,7 +2530,213 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>IV</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>IV</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{295AC34B-7DAE-4FC2-9B38-A6EF28520D62}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="9"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.49000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>OLS</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>OLS</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{AA2F67CC-2322-49F6-820F-0821B53D517F}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3070,6 +3288,1022 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5487,6 +6721,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="Chart 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D28DA9-375F-5C7E-43A7-C68FDBBAF701}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11382375" y="12825412"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Chart 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1A6C09-2E3C-84C8-332E-99445D88E1A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667500" y="12834937"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5545,8 +6935,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5562,7 +6952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="133349" y="5943599"/>
-          <a:ext cx="10067925" cy="4105275"/>
+          <a:ext cx="10067925" cy="4295776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5613,7 +7003,7 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5634,7 +7024,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>We want to test for correlation between the endogenous variable, X, and the errors, 𝑢𝑖.</a:t>
+            <a:t>We want to test for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>correlation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> between the endogenous variable, X, and the errors, 𝑢𝑖.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5662,8 +7076,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>𝐻1:𝐶𝑜𝑣(X,𝑢𝑖)≠0(𝑒𝑛𝑑𝑜𝑔𝑒𝑛𝑒𝑖𝑡𝑦)</a:t>
+            <a:t>𝐻1:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1" i="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>𝐶𝑜𝑣(X,𝑢𝑖)≠0(𝑒𝑛𝑑𝑜𝑔𝑒𝑛𝑒𝑖𝑡𝑦)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1800" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5742,7 +7179,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Second, we retrieve the residuals 𝜐̂ 𝑖 and include them in the original equation:</a:t>
+            <a:t>Second, we retrieve the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>residuals 𝜐̂ 𝑖 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and include them in the original equation:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5768,7 +7229,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>𝛼𝜐̂ 𝑖</a:t>
+            <a:t>𝛼 𝜐̂ 𝑖</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1800" b="0" i="0">
@@ -5785,7 +7246,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-CA" sz="1800" b="0" i="0">
+            <a:rPr lang="en-CA" sz="1800" b="1" i="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5814,9 +7275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5854,7 +7315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5960,7 +7421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6102,7 +7563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6132,7 +7593,7 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6154,13 +7615,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -6191,7 +7652,9 @@
       <c r="K2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>85</v>
       </c>
@@ -6243,8 +7706,9 @@
         <f t="array" ref="K3:K66">MMULT(G3:H66,TRANSPOSE(INDEX(Z_coefficient, 1,{2,1})))</f>
         <v>6.6924016887792659</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>108</v>
+      <c r="L3" s="3" cm="1">
+        <f t="array" ref="L3:L66">Y-Y__OLS</f>
+        <v>0.33590147938458159</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" ref="M3:M66">MMULT(x_variable,TRANSPOSE(INDEX(X_coefficient,1,{2,1})))</f>
@@ -6254,8 +7718,8 @@
         <f t="array" ref="N3:N66">MMULT(x_variable,TRANSPOSE(INDEX(X_hat_coefficient,1,{2,1})))</f>
         <v>8.0476371103693722</v>
       </c>
-      <c r="O3" s="3">
-        <f>B3-N3</f>
+      <c r="O3" s="3" cm="1">
+        <f t="array" ref="O3:O66">Y-Y__IV</f>
         <v>0.34236288963062833</v>
       </c>
       <c r="Q3" s="19" t="s">
@@ -6297,7 +7761,9 @@
       <c r="K4" s="3">
         <v>5.9101389832833586</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>0.3110198637526338</v>
+      </c>
       <c r="M4" s="3">
         <v>7.4589801362473658</v>
       </c>
@@ -6305,7 +7771,6 @@
         <v>6.994825044883294</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O66" si="0">B4-N4</f>
         <v>0.77517495511670553</v>
       </c>
       <c r="Q4" s="19" t="s">
@@ -6352,7 +7817,9 @@
       <c r="K5" s="3">
         <v>6.7700523713827128</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1.1333251831393945</v>
+      </c>
       <c r="M5" s="3">
         <v>7.9966748168606063</v>
       </c>
@@ -6360,7 +7827,6 @@
         <v>7.9460499812435224</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="0"/>
         <v>1.1839500187564784</v>
       </c>
       <c r="Q5" s="19" t="s">
@@ -6410,7 +7876,9 @@
       <c r="K6" s="3">
         <v>8.0498183639523742</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>0.37376652857939874</v>
+      </c>
       <c r="M6" s="3">
         <v>9.5262334714206016</v>
       </c>
@@ -6418,7 +7886,6 @@
         <v>10.651961693413881</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="0"/>
         <v>-0.75196169341388064</v>
       </c>
       <c r="Q6" s="19" t="s">
@@ -6468,7 +7935,9 @@
       <c r="K7" s="3">
         <v>6.6412646425025876</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>0.7138678088862882</v>
+      </c>
       <c r="M7" s="3">
         <v>8.5761321911137109</v>
       </c>
@@ -6476,7 +7945,6 @@
         <v>8.9711564660589147</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="0"/>
         <v>0.31884353394108444</v>
       </c>
       <c r="Q7" s="19" t="s">
@@ -6523,7 +7991,9 @@
       <c r="K8" s="3">
         <v>6.7481078156012053</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>-0.46413272873774147</v>
+      </c>
       <c r="M8" s="3">
         <v>7.3441327287377414</v>
       </c>
@@ -6531,7 +8001,6 @@
         <v>6.7916507866315943</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="0"/>
         <v>8.8349213368405621E-2</v>
       </c>
     </row>
@@ -6563,7 +8032,9 @@
       <c r="K9" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>0.32485043601311236</v>
+      </c>
       <c r="M9" s="3">
         <v>7.6051495639868874</v>
       </c>
@@ -6571,7 +8042,6 @@
         <v>7.2534104644763655</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="0"/>
         <v>0.67658953552363421</v>
       </c>
       <c r="Q9" s="7" t="s">
@@ -6614,7 +8084,9 @@
       <c r="K10" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>-6.0165996018010759E-2</v>
+      </c>
       <c r="M10" s="3">
         <v>8.7901659960180112</v>
       </c>
@@ -6622,7 +8094,6 @@
         <v>9.3497994018916266</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="0"/>
         <v>-0.61979940189162619</v>
       </c>
       <c r="Q10" s="7" t="s">
@@ -6665,7 +8136,9 @@
       <c r="K11" s="3">
         <v>5.9101389832833586</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>-0.1339294960939208</v>
+      </c>
       <c r="M11" s="3">
         <v>6.9839294960939204</v>
       </c>
@@ -6673,7 +8146,6 @@
         <v>6.1544224312058109</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="0"/>
         <v>0.69557756879418875</v>
       </c>
     </row>
@@ -6705,7 +8177,9 @@
       <c r="K12" s="3">
         <v>5.9101389832833586</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-0.52799683709050349</v>
+      </c>
       <c r="M12" s="3">
         <v>8.0279968370905035</v>
       </c>
@@ -6713,7 +8187,6 @@
         <v>8.001461142584894</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="0"/>
         <v>-0.50146114258489405</v>
       </c>
       <c r="Q12" s="10" t="s">
@@ -6764,7 +8237,9 @@
       <c r="K13" s="3">
         <v>7.6616749496505605</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>0.24973272367510013</v>
+      </c>
       <c r="M13" s="3">
         <v>9.7402672763249001</v>
       </c>
@@ -6772,7 +8247,6 @@
         <v>11.030604629246593</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="0"/>
         <v>-1.0406046292465927</v>
       </c>
       <c r="Q13" s="7" t="s">
@@ -6825,7 +8299,9 @@
       <c r="K14" s="3">
         <v>6.7700523713827128</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>0.59681703432683619</v>
+      </c>
       <c r="M14" s="3">
         <v>8.7431829656731637</v>
       </c>
@@ -6833,7 +8309,6 @@
         <v>9.2666826598795673</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="0"/>
         <v>7.3317340120432561E-2</v>
       </c>
       <c r="Q14" s="7" t="s">
@@ -6884,7 +8359,9 @@
       <c r="K15" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>0.32783386957598282</v>
+      </c>
       <c r="M15" s="3">
         <v>8.4821661304240177</v>
       </c>
@@ -6892,7 +8369,6 @@
         <v>8.8049229820347961</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="0"/>
         <v>5.0770179652044334E-3</v>
       </c>
       <c r="Q15" s="7" t="s">
@@ -6948,7 +8424,9 @@
       <c r="K16" s="3">
         <v>6.0046779415525622</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>0.31600275969147251</v>
+      </c>
       <c r="M16" s="3">
         <v>7.1039972403085274</v>
       </c>
@@ -6956,7 +8434,6 @@
         <v>6.3668318830144051</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="0"/>
         <v>1.0531681169855949</v>
       </c>
       <c r="Q16" s="7" t="s">
@@ -6971,7 +8448,7 @@
       <c r="T16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="46" t="s">
         <v>78</v>
       </c>
       <c r="V16" s="38">
@@ -7012,7 +8489,9 @@
       <c r="K17" s="3">
         <v>6.6931864480320717</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>0.44878296061052048</v>
+      </c>
       <c r="M17" s="3">
         <v>8.3412170393894787</v>
       </c>
@@ -7020,7 +8499,6 @@
         <v>8.5555727559986199</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="0"/>
         <v>0.23442724400137926</v>
       </c>
       <c r="Q17" s="7" t="s">
@@ -7076,7 +8554,9 @@
       <c r="K18" s="3">
         <v>5.3768848377213008</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>-0.87511535586456279</v>
+      </c>
       <c r="M18" s="3">
         <v>8.3151153558645632</v>
       </c>
@@ -7084,7 +8564,6 @@
         <v>8.5093967882141435</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="0"/>
         <v>-1.0693967882141431</v>
       </c>
       <c r="U18" s="25"/>
@@ -7119,7 +8598,9 @@
       <c r="K19" s="3">
         <v>6.3806883376262133</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>0.47295225394403495</v>
+      </c>
       <c r="M19" s="3">
         <v>7.8870477460559645</v>
       </c>
@@ -7127,7 +8608,6 @@
         <v>7.7521109165487179</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="0"/>
         <v>0.60788908345128156</v>
       </c>
       <c r="Q19" s="7" t="s">
@@ -7181,7 +8661,9 @@
       <c r="K20" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>0.38979979585966795</v>
+      </c>
       <c r="M20" s="3">
         <v>8.0802002041403327</v>
       </c>
@@ -7189,7 +8671,6 @@
         <v>8.0938130781538487</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="0"/>
         <v>0.37618692184615199</v>
       </c>
       <c r="Q20" s="14" t="s">
@@ -7243,7 +8724,9 @@
       <c r="K21" s="3">
         <v>6.779922638551521</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>-0.24504761164995781</v>
+      </c>
       <c r="M21" s="3">
         <v>8.195047611649958</v>
       </c>
@@ -7251,7 +8734,6 @@
         <v>8.2969873364055466</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="0"/>
         <v>-0.34698733640554646</v>
       </c>
     </row>
@@ -7283,7 +8765,9 @@
       <c r="K22" s="3">
         <v>6.6931864480320717</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>0.67895198513201915</v>
+      </c>
       <c r="M22" s="3">
         <v>7.271048014867981</v>
       </c>
@@ -7291,7 +8775,6 @@
         <v>6.6623580768350594</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="0"/>
         <v>1.2876419231649407</v>
       </c>
       <c r="Q22" s="8" t="s">
@@ -7332,7 +8815,9 @@
       <c r="K23" s="3">
         <v>7.367739343894792</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>-1.5421325943317337</v>
+      </c>
       <c r="M23" s="3">
         <v>7.652132594331734</v>
       </c>
@@ -7340,7 +8825,6 @@
         <v>7.3365272064884248</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="0"/>
         <v>-1.2265272064884245</v>
       </c>
       <c r="Q23" s="7" t="s">
@@ -7385,7 +8869,9 @@
       <c r="K24" s="3">
         <v>5.9101389832833586</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>0.15681703432683669</v>
+      </c>
       <c r="M24" s="3">
         <v>8.7431829656731637</v>
       </c>
@@ -7393,7 +8879,6 @@
         <v>9.2666826598795673</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="0"/>
         <v>-0.36668265987956694</v>
       </c>
       <c r="Q24" s="7" t="s">
@@ -7434,7 +8919,9 @@
       <c r="K25" s="3">
         <v>4.8931654927316721</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>-1.7080981173973946</v>
+      </c>
       <c r="M25" s="3">
         <v>8.9780981173973942</v>
       </c>
@@ -7442,7 +8929,6 @@
         <v>9.6822663699398603</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="0"/>
         <v>-2.4122663699398608</v>
       </c>
       <c r="Q25" s="7" t="s">
@@ -7486,7 +8972,9 @@
       <c r="K26" s="3">
         <v>5.3768848377213008</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>-0.56403077640081101</v>
+      </c>
       <c r="M26" s="3">
         <v>7.9340307764008111</v>
       </c>
@@ -7494,7 +8982,6 @@
         <v>7.8352276585607772</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="0"/>
         <v>-0.46522765856077708</v>
       </c>
       <c r="Q26" s="7" t="s">
@@ -7541,7 +9028,9 @@
       <c r="K27" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>0.94586727126225778</v>
+      </c>
       <c r="M27" s="3">
         <v>7.3441327287377414</v>
       </c>
@@ -7549,7 +9038,6 @@
         <v>6.7916507866315943</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="0"/>
         <v>1.4983492133684049</v>
       </c>
       <c r="Q27" s="7" t="s">
@@ -7593,7 +9081,9 @@
       <c r="K28" s="3">
         <v>5.5757570822067937</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <v>-0.59020020414033247</v>
+      </c>
       <c r="M28" s="3">
         <v>8.0802002041403327</v>
       </c>
@@ -7601,7 +9091,6 @@
         <v>8.0938130781538487</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="0"/>
         <v>-0.60381307815384844</v>
       </c>
     </row>
@@ -7633,7 +9122,9 @@
       <c r="K29" s="3">
         <v>7.2369562629905362</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>0.16434201838854001</v>
+      </c>
       <c r="M29" s="3">
         <v>7.7356579816114603</v>
       </c>
@@ -7641,7 +9132,6 @@
         <v>7.4842903033987511</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="0"/>
         <v>0.41570969660124923</v>
       </c>
       <c r="Q29" s="7" t="s">
@@ -7684,7 +9174,9 @@
       <c r="K30" s="3">
         <v>6.3806883376262133</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <v>0.54193474666485031</v>
+      </c>
       <c r="M30" s="3">
         <v>6.60806525333515</v>
       </c>
@@ -7692,7 +9184,6 @@
         <v>5.4894884951093408</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="0"/>
         <v>1.6605115048906596</v>
       </c>
       <c r="Q30" s="7" t="s">
@@ -7738,7 +9229,9 @@
       <c r="K31" s="3">
         <v>6.6931864480320717</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>0.25190121057256665</v>
+      </c>
       <c r="M31" s="3">
         <v>7.4380987894274337</v>
       </c>
@@ -7746,7 +9239,6 @@
         <v>6.9578842706557129</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="0"/>
         <v>0.73211572934428748</v>
       </c>
     </row>
@@ -7778,7 +9270,9 @@
       <c r="K32" s="3">
         <v>7.7091791463190908</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>1.1397662597673843</v>
+      </c>
       <c r="M32" s="3">
         <v>8.9102337402326164</v>
       </c>
@@ -7786,7 +9280,6 @@
         <v>9.5622088537002217</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="0"/>
         <v>0.48779114629977904</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -7830,7 +9323,9 @@
       <c r="K33" s="3">
         <v>6.9837318927407335</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>-1.6480981173973941</v>
+      </c>
       <c r="M33" s="3">
         <v>8.9780981173973942</v>
       </c>
@@ -7838,7 +9333,6 @@
         <v>9.6822663699398603</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="0"/>
         <v>-2.3522663699398603</v>
       </c>
       <c r="Q33" s="7" t="s">
@@ -7881,7 +9375,9 @@
       <c r="K34" s="3">
         <v>6.2161649124799565</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>-0.55311522145855641</v>
+      </c>
       <c r="M34" s="3">
         <v>8.6231152214585567</v>
       </c>
@@ -7889,7 +9385,6 @@
         <v>9.0542732080709722</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="0"/>
         <v>-0.98427320807097196</v>
       </c>
       <c r="Q34" s="7" t="s">
@@ -7934,7 +9429,9 @@
       <c r="K35" s="3">
         <v>6.3806883376262133</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <v>-0.1720983862094112</v>
+      </c>
       <c r="M35" s="3">
         <v>8.3620983862094107</v>
       </c>
@@ -7942,7 +9439,6 @@
         <v>8.5925135302262028</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="0"/>
         <v>-0.40251353022620329</v>
       </c>
       <c r="U35" t="s">
@@ -7977,7 +9473,9 @@
       <c r="K36" s="3">
         <v>6.3137175833118402</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>-0.75918336889118709</v>
+      </c>
       <c r="M36" s="3">
         <v>7.8191833688911867</v>
       </c>
@@ -7985,7 +9483,6 @@
         <v>7.6320534003090783</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="0"/>
         <v>-0.5720534003090787</v>
       </c>
     </row>
@@ -8017,7 +9514,9 @@
       <c r="K37" s="3">
         <v>5.5118571656910547</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>-0.14392949609392058</v>
+      </c>
       <c r="M37" s="3">
         <v>6.9839294960939204</v>
       </c>
@@ -8025,10 +9524,9 @@
         <v>6.1544224312058109</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="0"/>
         <v>0.68557756879418896</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8060,7 +9558,9 @@
       <c r="K38" s="3">
         <v>7.6035686320996501</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>7.8952657162059126E-2</v>
+      </c>
       <c r="M38" s="3">
         <v>8.8110473428379414</v>
       </c>
@@ -8068,7 +9568,6 @@
         <v>9.3867401761192077</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="0"/>
         <v>-0.49674017611920718</v>
       </c>
       <c r="R38" s="45" cm="1">
@@ -8107,7 +9606,9 @@
       <c r="K39" s="3">
         <v>4.4680657627090419</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3">
+        <v>-0.17901434436968877</v>
+      </c>
       <c r="M39" s="3">
         <v>6.7490143443696891</v>
       </c>
@@ -8115,7 +9616,6 @@
         <v>5.738838721145517</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="0"/>
         <v>0.83116127885448332</v>
       </c>
       <c r="R39" s="45">
@@ -8153,7 +9653,9 @@
       <c r="K40" s="3">
         <v>7.654103380982094</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="3">
+        <v>0.99481689992082778</v>
+      </c>
       <c r="M40" s="3">
         <v>8.4351831000791719</v>
       </c>
@@ -8161,7 +9663,6 @@
         <v>8.7218062400227385</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="0"/>
         <v>0.70819375997726119</v>
       </c>
     </row>
@@ -8193,7 +9694,9 @@
       <c r="K41" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3">
+        <v>0.36386780888628856</v>
+      </c>
       <c r="M41" s="3">
         <v>8.5761321911137109</v>
       </c>
@@ -8201,7 +9704,6 @@
         <v>8.9711564660589147</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="0"/>
         <v>-3.11564660589152E-2</v>
       </c>
       <c r="Q41" s="11" t="s">
@@ -8242,7 +9744,9 @@
       <c r="K42" s="3">
         <v>6.6924016887792659</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="3">
+        <v>-0.32209838620941156</v>
+      </c>
       <c r="M42" s="3">
         <v>8.3620983862094107</v>
       </c>
@@ -8250,7 +9754,6 @@
         <v>8.5925135302262028</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="0"/>
         <v>-0.55251353022620364</v>
       </c>
       <c r="Q42" s="7" t="s">
@@ -8293,7 +9796,9 @@
       <c r="K43" s="3">
         <v>8.0498183639523742</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3">
+        <v>1.9732723675099706E-2</v>
+      </c>
       <c r="M43" s="3">
         <v>9.7402672763249001</v>
       </c>
@@ -8301,7 +9806,6 @@
         <v>11.030604629246593</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="0"/>
         <v>-1.2706046292465931</v>
       </c>
       <c r="Q43" s="7" t="s">
@@ -8344,7 +9848,9 @@
       <c r="K44" s="3">
         <v>6.2408249288860596</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3">
+        <v>0.14888424091741204</v>
+      </c>
       <c r="M44" s="3">
         <v>7.391115759082588</v>
       </c>
@@ -8352,7 +9858,6 @@
         <v>6.8747675286436545</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="0"/>
         <v>0.66523247135634556</v>
       </c>
       <c r="Q44" s="7" t="s">
@@ -8395,7 +9900,9 @@
       <c r="K45" s="3">
         <v>5.6913940664365406</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3">
+        <v>-0.5410480148679806</v>
+      </c>
       <c r="M45" s="3">
         <v>7.271048014867981</v>
       </c>
@@ -8403,7 +9910,6 @@
         <v>6.6623580768350594</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="0"/>
         <v>6.7641923164940998E-2</v>
       </c>
       <c r="Q45" s="14" t="s">
@@ -8446,7 +9952,9 @@
       <c r="K46" s="3">
         <v>4.7031177065687437</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3">
+        <v>-0.74816653364204111</v>
+      </c>
       <c r="M46" s="3">
         <v>7.5581665336420407</v>
       </c>
@@ -8454,7 +9962,6 @@
         <v>7.1702937224643071</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="0"/>
         <v>-0.36029372246430746</v>
       </c>
     </row>
@@ -8486,7 +9993,9 @@
       <c r="K47" s="3">
         <v>7.1515235560304777</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3">
+        <v>-0.46918336889118706</v>
+      </c>
       <c r="M47" s="3">
         <v>7.8191833688911867</v>
       </c>
@@ -8494,7 +10003,6 @@
         <v>7.6320534003090783</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="0"/>
         <v>-0.28205340030907866</v>
       </c>
     </row>
@@ -8526,7 +10034,9 @@
       <c r="K48" s="3">
         <v>6.2408249288860596</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3">
+        <v>1.0939013449785735</v>
+      </c>
       <c r="M48" s="3">
         <v>7.7460986550214264</v>
       </c>
@@ -8534,7 +10044,6 @@
         <v>7.5027606905125426</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="0"/>
         <v>1.3372393094874573</v>
       </c>
     </row>
@@ -8566,7 +10075,9 @@
       <c r="K49" s="3">
         <v>6.6931864480320717</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3">
+        <v>-7.9013672339648622E-2</v>
+      </c>
       <c r="M49" s="3">
         <v>8.2890136723396495</v>
       </c>
@@ -8574,7 +10085,6 @@
         <v>8.4632208204296653</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="0"/>
         <v>-0.25322082042966443</v>
       </c>
     </row>
@@ -8606,7 +10116,9 @@
       <c r="K50" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="3">
+        <v>0.72698605884833523</v>
+      </c>
       <c r="M50" s="3">
         <v>7.6730139411516651</v>
       </c>
@@ -8614,7 +10126,6 @@
         <v>7.373467980716006</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="0"/>
         <v>1.0265320192839944</v>
       </c>
     </row>
@@ -8646,7 +10157,9 @@
       <c r="K51" s="3">
         <v>6.2357384659546096</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="3">
+        <v>-0.39308168536627264</v>
+      </c>
       <c r="M51" s="3">
         <v>7.793081685366273</v>
       </c>
@@ -8654,7 +10167,6 @@
         <v>7.585877432524601</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="0"/>
         <v>-0.18587743252460065</v>
       </c>
     </row>
@@ -8686,7 +10198,9 @@
       <c r="K52" s="3">
         <v>5.5757570822067937</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3">
+        <v>-1.4491156246765797</v>
+      </c>
       <c r="M52" s="3">
         <v>7.6991156246765797</v>
       </c>
@@ -8694,7 +10208,6 @@
         <v>7.4196439485004841</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="0"/>
         <v>-1.1696439485004841</v>
       </c>
     </row>
@@ -8726,7 +10239,9 @@
       <c r="K53" s="3">
         <v>7.6035686320996501</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="3">
+        <v>0.62376652857939874</v>
+      </c>
       <c r="M53" s="3">
         <v>9.5262334714206016</v>
       </c>
@@ -8734,7 +10249,6 @@
         <v>10.651961693413881</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="0"/>
         <v>-0.50196169341388064</v>
       </c>
     </row>
@@ -8766,7 +10280,9 @@
       <c r="K54" s="3">
         <v>7.6849672150622776</v>
       </c>
-      <c r="L54" s="3"/>
+      <c r="L54" s="3">
+        <v>0.64796935800519684</v>
+      </c>
       <c r="M54" s="3">
         <v>8.2420306419948037</v>
       </c>
@@ -8774,7 +10290,6 @@
         <v>8.3801040784176077</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="0"/>
         <v>0.50989592158239283</v>
       </c>
     </row>
@@ -8806,7 +10321,9 @@
       <c r="K55" s="3">
         <v>6.7620932063923842</v>
       </c>
-      <c r="L55" s="3"/>
+      <c r="L55" s="3">
+        <v>-8.9183368891186277E-2</v>
+      </c>
       <c r="M55" s="3">
         <v>7.8191833688911867</v>
       </c>
@@ -8814,7 +10331,6 @@
         <v>7.6320534003090783</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="0"/>
         <v>9.794659969092212E-2</v>
       </c>
     </row>
@@ -8846,7 +10362,9 @@
       <c r="K56" s="3">
         <v>6.6186001041389035</v>
       </c>
-      <c r="L56" s="3"/>
+      <c r="L56" s="3">
+        <v>0.56098565563031055</v>
+      </c>
       <c r="M56" s="3">
         <v>6.7490143443696891</v>
       </c>
@@ -8854,7 +10372,6 @@
         <v>5.738838721145517</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="0"/>
         <v>1.5711612788544826</v>
       </c>
     </row>
@@ -8886,7 +10403,9 @@
       <c r="K57" s="3">
         <v>6.3137175833118402</v>
       </c>
-      <c r="L57" s="3"/>
+      <c r="L57" s="3">
+        <v>-1.8771832344851802</v>
+      </c>
       <c r="M57" s="3">
         <v>8.1271832344851802</v>
       </c>
@@ -8894,7 +10413,6 @@
         <v>8.176929820165908</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="0"/>
         <v>-1.926929820165908</v>
       </c>
     </row>
@@ -8926,7 +10444,9 @@
       <c r="K58" s="3">
         <v>5.3768848377213008</v>
       </c>
-      <c r="L58" s="3"/>
+      <c r="L58" s="3">
+        <v>-1.0481323255197195</v>
+      </c>
       <c r="M58" s="3">
         <v>8.2681323255197192</v>
       </c>
@@ -8934,7 +10454,6 @@
         <v>8.4262800462020842</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="0"/>
         <v>-1.2062800462020844</v>
       </c>
     </row>
@@ -8966,7 +10485,9 @@
       <c r="K59" s="3">
         <v>6.6412646425025876</v>
       </c>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3">
+        <v>0.21996949241120412</v>
+      </c>
       <c r="M59" s="3">
         <v>8.5500305075887955</v>
       </c>
@@ -8974,7 +10495,6 @@
         <v>8.9249804982744365</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="0"/>
         <v>-0.15498049827443694</v>
       </c>
     </row>
@@ -9006,7 +10526,9 @@
       <c r="K60" s="3">
         <v>6.8249549173147157</v>
       </c>
-      <c r="L60" s="3"/>
+      <c r="L60" s="3">
+        <v>0.45200316290949694</v>
+      </c>
       <c r="M60" s="3">
         <v>8.0279968370905035</v>
       </c>
@@ -9014,7 +10536,6 @@
         <v>8.001461142584894</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="0"/>
         <v>0.47853885741510638</v>
       </c>
     </row>
@@ -9046,7 +10567,9 @@
       <c r="K61" s="3">
         <v>5.9101389832833586</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3">
+        <v>-1.392949609392069E-2</v>
+      </c>
       <c r="M61" s="3">
         <v>6.9839294960939204</v>
       </c>
@@ -9054,7 +10577,6 @@
         <v>6.1544224312058109</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="0"/>
         <v>0.81557756879418886</v>
       </c>
     </row>
@@ -9086,7 +10608,9 @@
       <c r="K62" s="3">
         <v>6.7516391588553297</v>
       </c>
-      <c r="L62" s="3"/>
+      <c r="L62" s="3">
+        <v>0.71488464413543618</v>
+      </c>
       <c r="M62" s="3">
         <v>8.3151153558645632</v>
       </c>
@@ -9094,7 +10618,6 @@
         <v>8.5093967882141435</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="0"/>
         <v>0.52060321178585589</v>
       </c>
     </row>
@@ -9126,7 +10649,9 @@
       <c r="K63" s="3">
         <v>7.7050768616430849</v>
       </c>
-      <c r="L63" s="3"/>
+      <c r="L63" s="3">
+        <v>0.33878363264056155</v>
+      </c>
       <c r="M63" s="3">
         <v>9.8812163673594391</v>
       </c>
@@ -9134,7 +10659,6 @@
         <v>11.279954855282771</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="0"/>
         <v>-1.0599548552827702</v>
       </c>
     </row>
@@ -9166,7 +10690,9 @@
       <c r="K64" s="3">
         <v>6.6931864480320717</v>
       </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="3">
+        <v>0.68179993026567587</v>
+      </c>
       <c r="M64" s="3">
         <v>8.3882000697343244</v>
       </c>
@@ -9174,7 +10700,6 @@
         <v>8.6386894980106774</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="0"/>
         <v>0.43131050198932286</v>
       </c>
     </row>
@@ -9206,7 +10731,9 @@
       <c r="K65" s="3">
         <v>6.3352387133059898</v>
       </c>
-      <c r="L65" s="3"/>
+      <c r="L65" s="3">
+        <v>-0.72711549027057121</v>
+      </c>
       <c r="M65" s="3">
         <v>8.0071154902705715</v>
       </c>
@@ -9214,7 +10741,6 @@
         <v>7.9645203683573138</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="0"/>
         <v>-0.68452036835731356</v>
       </c>
     </row>
@@ -9246,7 +10772,9 @@
       <c r="K66" s="3">
         <v>6.0046779415525622</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="3">
+        <v>0.38200249087945704</v>
+      </c>
       <c r="M66" s="3">
         <v>6.4879975091205431</v>
       </c>
@@ -9254,7 +10782,6 @@
         <v>5.2770790433007457</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="0"/>
         <v>1.5929209566992544</v>
       </c>
     </row>
@@ -9339,6 +10866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8A1AFA-834E-426F-8E7D-7A86C194AF22}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9349,7 +10877,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
